--- a/CISC4900TimeLog.xlsx
+++ b/CISC4900TimeLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7B3056-94D1-4FF1-99E5-2FD2AD35CD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9EA55F-0A03-4115-B514-FB06C799B244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0DF6CBB-8CE8-40A9-B21B-059ACFD410C1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Week</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>Researching /etc/shadow, sftp, grep, openMPI</t>
+  </si>
+  <si>
+    <t>Backup Config files</t>
+  </si>
+  <si>
+    <t>Update to the Latest Release Point bullseye 11.7</t>
   </si>
 </sst>
 </file>
@@ -130,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -138,13 +144,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B12CE53-71B5-44E1-AE47-E4908DEE3068}">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +474,7 @@
     <col min="4" max="4" width="72.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -486,587 +488,246 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>45169</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
         <v>45169</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
         <v>45169</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>45176</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
         <v>45176</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
         <v>45177</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
         <v>45178</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>3</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
         <v>45179</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>2</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>3</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>45180</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>4</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
         <v>45182</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>4</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
         <v>45183</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>1.5</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
         <v>45183</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>4</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>45187</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="1">
         <v>3</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1074,6 +735,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BAE5CE4BBD6BE247A186416CDCE65D47" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5f902b9134511ddef0a51c9395d223ef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="38852e60-dea5-4a90-8589-6834d8fddd0c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="00c06f8b75bbe187257259975420db87" ns3:_="">
     <xsd:import namespace="38852e60-dea5-4a90-8589-6834d8fddd0c"/>
@@ -1205,22 +881,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF4A4FD2-D510-43D8-8146-F0F9F8125994}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="38852e60-dea5-4a90-8589-6834d8fddd0c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4E25D48-BA48-4106-9FE3-F8A0C0C84E88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0EA219F-8B00-4324-B56A-CCDD83FBEEAC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1236,28 +921,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4E25D48-BA48-4106-9FE3-F8A0C0C84E88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF4A4FD2-D510-43D8-8146-F0F9F8125994}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="38852e60-dea5-4a90-8589-6834d8fddd0c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/CISC4900TimeLog.xlsx
+++ b/CISC4900TimeLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9EA55F-0A03-4115-B514-FB06C799B244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9956EEE-7512-4D0E-84DA-41ECDCFDB347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0DF6CBB-8CE8-40A9-B21B-059ACFD410C1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Week</t>
   </si>
@@ -93,6 +93,27 @@
   </si>
   <si>
     <t>Update to the Latest Release Point bullseye 11.7</t>
+  </si>
+  <si>
+    <t>Setup dual boot Windows-Ubuntu at home</t>
+  </si>
+  <si>
+    <t>Meeting with professor gross, cloning the hard drive</t>
+  </si>
+  <si>
+    <t>Looking through config files for NIS, more research</t>
+  </si>
+  <si>
+    <t>Meeting professor Gross, installing bullseye 11.7 from scratch</t>
+  </si>
+  <si>
+    <t>Trying to fix broken package dependencies</t>
+  </si>
+  <si>
+    <t>More research, installing ubuntu on personal laptop for SSH</t>
+  </si>
+  <si>
+    <t>Demo 1 Video, Installing software to make a video</t>
   </si>
 </sst>
 </file>
@@ -136,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -145,6 +166,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -464,7 +491,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,36 +693,84 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="B20" s="3">
+        <v>45188</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="B21" s="3">
+        <v>45190</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="B22" s="4">
+        <v>45192</v>
+      </c>
+      <c r="C22" s="5">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="A24" s="1">
+        <v>5</v>
+      </c>
+      <c r="B24" s="3">
+        <v>45195</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="B25" s="3">
+        <v>45197</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="B26" s="3">
+        <v>45198</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="B27" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
@@ -731,25 +806,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BAE5CE4BBD6BE247A186416CDCE65D47" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5f902b9134511ddef0a51c9395d223ef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="38852e60-dea5-4a90-8589-6834d8fddd0c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="00c06f8b75bbe187257259975420db87" ns3:_="">
     <xsd:import namespace="38852e60-dea5-4a90-8589-6834d8fddd0c"/>
@@ -881,31 +942,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF4A4FD2-D510-43D8-8146-F0F9F8125994}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="38852e60-dea5-4a90-8589-6834d8fddd0c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4E25D48-BA48-4106-9FE3-F8A0C0C84E88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0EA219F-8B00-4324-B56A-CCDD83FBEEAC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -921,4 +973,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4E25D48-BA48-4106-9FE3-F8A0C0C84E88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF4A4FD2-D510-43D8-8146-F0F9F8125994}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="38852e60-dea5-4a90-8589-6834d8fddd0c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/CISC4900TimeLog.xlsx
+++ b/CISC4900TimeLog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9956EEE-7512-4D0E-84DA-41ECDCFDB347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C6F3BE-E0E2-4299-B847-E5F38C5F1A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0DF6CBB-8CE8-40A9-B21B-059ACFD410C1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Week</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Setup dual boot Windows-Ubuntu at home</t>
   </si>
   <si>
-    <t>Meeting with professor gross, cloning the hard drive</t>
-  </si>
-  <si>
     <t>Looking through config files for NIS, more research</t>
   </si>
   <si>
@@ -114,6 +111,60 @@
   </si>
   <si>
     <t>Demo 1 Video, Installing software to make a video</t>
+  </si>
+  <si>
+    <t>Meeting with professor Gross, cloning the hard drive</t>
+  </si>
+  <si>
+    <t>Meeting with professor Gross, verifying the functionality of NIS</t>
+  </si>
+  <si>
+    <t>NIS Research, NIS Setup on Palma</t>
+  </si>
+  <si>
+    <t>Demo 1 Presentation, TimeLog and PM updates</t>
+  </si>
+  <si>
+    <t>NFS Research, NFS Setup on Palma, Testing functionality</t>
+  </si>
+  <si>
+    <t>PowerPoint familiarization, started making slides</t>
+  </si>
+  <si>
+    <t>Power Pont finishing touches, submission</t>
+  </si>
+  <si>
+    <t>meeting with Professor Gross, progress checking, planning the next steps</t>
+  </si>
+  <si>
+    <t>AWK Research, practice scripts, working on PowerPoint presentation</t>
+  </si>
+  <si>
+    <t>meeting with Professor Gross, installing NVIDIA Drivers, installing CUDA Toolkit</t>
+  </si>
+  <si>
+    <t>Researching CUDA, working on writing sample code</t>
+  </si>
+  <si>
+    <t>CUDA Research, openMPI Research, openMPI sample code</t>
+  </si>
+  <si>
+    <t>openMPI setup, openMPI testing, CUDA Research</t>
+  </si>
+  <si>
+    <t>Software Setup on home computers attempting to mimic Brooklyn College Cluster Setup</t>
+  </si>
+  <si>
+    <t>Verifying the software on Palma</t>
+  </si>
+  <si>
+    <t>Setting up a Virtual Machine on a home computer for potential tests</t>
+  </si>
+  <si>
+    <t>OpenMPI research</t>
+  </si>
+  <si>
+    <t>Going through the old changelog, making my new changelog</t>
   </si>
 </sst>
 </file>
@@ -157,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -174,6 +225,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,17 +540,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B12CE53-71B5-44E1-AE47-E4908DEE3068}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
     <col min="2" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="72.140625" customWidth="1"/>
+    <col min="4" max="4" width="86.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -700,7 +752,7 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -711,18 +763,18 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>45192</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="1">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -747,7 +799,7 @@
         <v>2.5</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -758,7 +810,7 @@
         <v>3.5</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -769,7 +821,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -777,32 +829,491 @@
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="A29" s="1">
+        <v>6</v>
+      </c>
+      <c r="B29" s="3">
+        <v>45201</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="B30" s="3">
+        <v>45203</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="B31" s="3">
+        <v>45204</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="3">
+        <v>45206</v>
+      </c>
+      <c r="C32" s="1">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>7</v>
+      </c>
+      <c r="B34" s="3">
+        <v>45208</v>
+      </c>
+      <c r="C34" s="1">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="3">
+        <v>45210</v>
+      </c>
+      <c r="C35" s="1">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="4">
+        <v>45212</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="4">
+        <v>45214</v>
+      </c>
+      <c r="C37" s="5">
+        <v>8</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>8</v>
+      </c>
+      <c r="B39" s="4">
+        <v>45215</v>
+      </c>
+      <c r="C39" s="5">
+        <v>7</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="4">
+        <v>45217</v>
+      </c>
+      <c r="C40" s="5">
+        <v>6</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="4">
+        <v>45219</v>
+      </c>
+      <c r="C41" s="5">
+        <v>2</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="4">
+        <v>45221</v>
+      </c>
+      <c r="C42" s="5">
+        <v>4</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>9</v>
+      </c>
+      <c r="B44" s="4">
+        <v>45222</v>
+      </c>
+      <c r="C44" s="5">
+        <v>6</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="4">
+        <v>45225</v>
+      </c>
+      <c r="C45" s="5">
+        <v>3</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="4">
+        <v>45226</v>
+      </c>
+      <c r="C46" s="5">
+        <v>6</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>10</v>
+      </c>
+      <c r="B48" s="4">
+        <v>45229</v>
+      </c>
+      <c r="C48" s="5">
+        <v>4</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="4">
+        <v>45232</v>
+      </c>
+      <c r="C49" s="5">
+        <v>2</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="B50" s="4">
+        <v>45234</v>
+      </c>
+      <c r="C50" s="5">
+        <v>8</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" s="4">
+        <v>45236</v>
+      </c>
+      <c r="C51" s="5">
+        <v>2</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -811,6 +1322,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BAE5CE4BBD6BE247A186416CDCE65D47" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5f902b9134511ddef0a51c9395d223ef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="38852e60-dea5-4a90-8589-6834d8fddd0c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="00c06f8b75bbe187257259975420db87" ns3:_="">
     <xsd:import namespace="38852e60-dea5-4a90-8589-6834d8fddd0c"/>
@@ -942,15 +1462,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -958,6 +1469,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4E25D48-BA48-4106-9FE3-F8A0C0C84E88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0EA219F-8B00-4324-B56A-CCDD83FBEEAC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -971,14 +1490,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4E25D48-BA48-4106-9FE3-F8A0C0C84E88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/CISC4900TimeLog.xlsx
+++ b/CISC4900TimeLog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C6F3BE-E0E2-4299-B847-E5F38C5F1A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81823A6C-87C0-4010-84E0-E5A01A678E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0DF6CBB-8CE8-40A9-B21B-059ACFD410C1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>Week</t>
   </si>
@@ -165,6 +165,48 @@
   </si>
   <si>
     <t>Going through the old changelog, making my new changelog</t>
+  </si>
+  <si>
+    <t>Break/College closed</t>
+  </si>
+  <si>
+    <t>Meeting with professor Gross</t>
+  </si>
+  <si>
+    <t>Finishing Presentation Slides+ Video</t>
+  </si>
+  <si>
+    <t>Final Presentation</t>
+  </si>
+  <si>
+    <t>Finishing work on Palma</t>
+  </si>
+  <si>
+    <t>Changelog update, Metis and Gomera Cleanup</t>
+  </si>
+  <si>
+    <t>Meeting with professor Gross, Metis cloning</t>
+  </si>
+  <si>
+    <t>Power Point work</t>
+  </si>
+  <si>
+    <t>17-Nov-19-Nov</t>
+  </si>
+  <si>
+    <t>Resolving issues with passwords, verifying work</t>
+  </si>
+  <si>
+    <t>31-Nov</t>
+  </si>
+  <si>
+    <t>Metis Cleanup</t>
+  </si>
+  <si>
+    <t>1-Dec-4-Dec</t>
+  </si>
+  <si>
+    <t>Finishing work + PowerPoint</t>
   </si>
 </sst>
 </file>
@@ -208,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -225,7 +267,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B12CE53-71B5-44E1-AE47-E4908DEE3068}">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,11 +916,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>7</v>
       </c>
@@ -893,7 +934,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
         <v>45210</v>
       </c>
@@ -904,8 +945,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="3">
         <v>45212</v>
       </c>
       <c r="C36" s="2">
@@ -915,405 +956,324 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="3">
         <v>45214</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="1">
         <v>8</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>8</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <v>45215</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="1">
         <v>7</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="4">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="3">
         <v>45217</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="1">
         <v>6</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="4">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="3">
         <v>45219</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="1">
         <v>2</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" t="s">
         <v>39</v>
       </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="4">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="3">
         <v>45221</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="1">
         <v>4</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" t="s">
         <v>37</v>
       </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>9</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <v>45222</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="1">
         <v>6</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" t="s">
         <v>36</v>
       </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="4">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="3">
         <v>45225</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="1">
         <v>3</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" t="s">
         <v>34</v>
       </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="4">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="3">
         <v>45226</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="1">
         <v>6</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>10</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="3">
         <v>45229</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="1">
         <v>4</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" t="s">
         <v>30</v>
       </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="4">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="3">
         <v>45232</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="1">
         <v>2</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="4">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="3">
         <v>45234</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="1">
         <v>8</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="4">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="3">
         <v>45236</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="1">
         <v>2</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" t="s">
         <v>31</v>
       </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>11</v>
+      </c>
+      <c r="B53" s="3">
+        <v>45239</v>
+      </c>
+      <c r="C53" s="1">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="3">
+        <v>45240</v>
+      </c>
+      <c r="C54" s="1">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="4">
+        <v>45241</v>
+      </c>
+      <c r="C55" s="5">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>12</v>
+      </c>
+      <c r="B57" s="3">
+        <v>45243</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="3">
+        <v>45246</v>
+      </c>
+      <c r="C58" s="1">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="5">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>13</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>14</v>
+      </c>
+      <c r="B64" s="3">
+        <v>45260</v>
+      </c>
+      <c r="C64" s="1">
+        <v>3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" s="1">
+        <v>3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" s="5">
+        <v>4</v>
+      </c>
+      <c r="D66" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>15</v>
+      </c>
+      <c r="B68" s="3">
+        <v>45267</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="4">
+        <v>45272</v>
+      </c>
+      <c r="C69" s="5">
+        <v>3</v>
+      </c>
+      <c r="D69" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="3">
+        <v>45273</v>
+      </c>
+      <c r="C70" s="1">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1322,15 +1282,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BAE5CE4BBD6BE247A186416CDCE65D47" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5f902b9134511ddef0a51c9395d223ef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="38852e60-dea5-4a90-8589-6834d8fddd0c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="00c06f8b75bbe187257259975420db87" ns3:_="">
     <xsd:import namespace="38852e60-dea5-4a90-8589-6834d8fddd0c"/>
@@ -1462,6 +1413,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1469,14 +1429,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4E25D48-BA48-4106-9FE3-F8A0C0C84E88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0EA219F-8B00-4324-B56A-CCDD83FBEEAC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1490,6 +1442,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4E25D48-BA48-4106-9FE3-F8A0C0C84E88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
